--- a/design/테이블정의.xlsx
+++ b/design/테이블정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\kios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37671F-22F1-4E0F-AEFB-F82C9EC1A52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75567B9C-48A6-4B07-A50C-92F05A180317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12370" yWindow="1720" windowWidth="6400" windowHeight="3270" firstSheet="5" activeTab="6" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="247">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -837,10 +837,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEMBER(MEMBER_ID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>USER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -931,6 +927,42 @@
   </si>
   <si>
     <t>USER_POINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>card / cash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트사용금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 결제 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER(ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER(ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USEPOINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_SUB(MENU_NAME)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1140,7 +1172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +1311,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1303,6 +1341,24 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,6 +1371,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,29 +1389,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1913,7 +1957,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1933,7 +1977,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="46"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -1948,7 +1992,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="46"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -1960,7 +2004,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="46"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
@@ -1975,7 +2019,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="46"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1987,7 +2031,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="46"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +2050,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="46"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>11</v>
@@ -2016,7 +2060,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="46"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>10</v>
@@ -2029,7 +2073,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="46"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
@@ -2256,7 +2300,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2274,7 +2318,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -2288,7 +2332,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -2302,7 +2346,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -2316,7 +2360,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2328,7 +2372,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -2342,7 +2386,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2362,7 +2406,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -2377,7 +2421,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -2389,7 +2433,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
@@ -2404,7 +2448,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -2416,7 +2460,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2437,7 +2481,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>11</v>
@@ -2447,7 +2491,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>10</v>
@@ -2460,7 +2504,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="48"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
@@ -2695,7 +2739,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2713,7 +2757,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -2727,7 +2771,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -2741,7 +2785,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -2755,7 +2799,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2767,7 +2811,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -2781,7 +2825,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2801,7 +2845,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>67</v>
@@ -2813,7 +2857,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>66</v>
@@ -2827,7 +2871,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>63</v>
@@ -2839,7 +2883,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2857,7 +2901,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>61</v>
@@ -2868,7 +2912,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>60</v>
@@ -2882,7 +2926,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>59</v>
@@ -2892,7 +2936,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="48"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
@@ -2954,7 +2998,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3072,7 +3116,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -3090,7 +3134,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
         <v>30</v>
@@ -3104,7 +3148,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -3118,7 +3162,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
         <v>25</v>
@@ -3132,7 +3176,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
         <v>23</v>
@@ -3144,7 +3188,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -3158,7 +3202,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3178,7 +3222,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>67</v>
@@ -3190,7 +3234,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>66</v>
@@ -3204,7 +3248,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>63</v>
@@ -3216,7 +3260,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3234,7 +3278,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>11</v>
@@ -3245,7 +3289,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>68</v>
@@ -3351,10 +3395,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -3373,8 +3417,8 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="51"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="21" t="s">
         <v>55</v>
       </c>
@@ -3393,10 +3437,10 @@
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -3415,8 +3459,8 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
@@ -3433,8 +3477,8 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
@@ -3451,8 +3495,8 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="27" t="s">
         <v>70</v>
       </c>
@@ -3472,10 +3516,10 @@
       <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="51" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -3496,8 +3540,8 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
@@ -3512,8 +3556,8 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="51"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="21" t="s">
         <v>66</v>
       </c>
@@ -3530,8 +3574,8 @@
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="51"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="21" t="s">
         <v>63</v>
       </c>
@@ -3546,10 +3590,10 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -3572,8 +3616,8 @@
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="27" t="s">
         <v>69</v>
       </c>
@@ -3593,8 +3637,8 @@
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="27" t="s">
         <v>55</v>
       </c>
@@ -3615,8 +3659,8 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="25" t="s">
         <v>86</v>
       </c>
@@ -3637,8 +3681,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="25" t="s">
         <v>83</v>
       </c>
@@ -3655,8 +3699,8 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="25" t="s">
         <v>80</v>
       </c>
@@ -3677,8 +3721,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
@@ -3695,8 +3739,8 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="25" t="s">
         <v>76</v>
       </c>
@@ -3717,8 +3761,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="25" t="s">
         <v>68</v>
       </c>
@@ -3737,10 +3781,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -3759,8 +3803,8 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="50"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="21" t="s">
         <v>96</v>
       </c>
@@ -3777,8 +3821,8 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="50"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
@@ -3795,8 +3839,8 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="50"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="34" t="s">
         <v>94</v>
       </c>
@@ -3813,8 +3857,8 @@
       <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="50"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="33" t="s">
         <v>86</v>
       </c>
@@ -3832,8 +3876,8 @@
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="50"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="33" t="s">
         <v>80</v>
       </c>
@@ -3851,8 +3895,8 @@
       <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="50"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="33" t="s">
         <v>76</v>
       </c>
@@ -3870,8 +3914,8 @@
       <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="50"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="33" t="s">
         <v>95</v>
       </c>
@@ -3889,8 +3933,8 @@
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="50"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="33" t="s">
         <v>100</v>
       </c>
@@ -3978,10 +4022,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -4000,8 +4044,8 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="51"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="21" t="s">
         <v>55</v>
       </c>
@@ -4020,10 +4064,10 @@
       <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -4042,8 +4086,8 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
@@ -4060,8 +4104,8 @@
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
@@ -4078,8 +4122,8 @@
       <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="27" t="s">
         <v>70</v>
       </c>
@@ -4099,10 +4143,10 @@
       <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -4123,8 +4167,8 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="65"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
@@ -4139,8 +4183,8 @@
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="65"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="21" t="s">
         <v>66</v>
       </c>
@@ -4157,8 +4201,8 @@
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="21" t="s">
         <v>63</v>
       </c>
@@ -4173,8 +4217,8 @@
       <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="66"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="21" t="s">
         <v>145</v>
       </c>
@@ -4185,10 +4229,10 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -4211,8 +4255,8 @@
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="27" t="s">
         <v>69</v>
       </c>
@@ -4232,8 +4276,8 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="27" t="s">
         <v>55</v>
       </c>
@@ -4254,8 +4298,8 @@
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="25" t="s">
         <v>86</v>
       </c>
@@ -4276,8 +4320,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="25" t="s">
         <v>83</v>
       </c>
@@ -4294,8 +4338,8 @@
       <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="25" t="s">
         <v>80</v>
       </c>
@@ -4316,8 +4360,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="25" t="s">
         <v>78</v>
       </c>
@@ -4334,8 +4378,8 @@
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="25" t="s">
         <v>76</v>
       </c>
@@ -4356,8 +4400,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="25" t="s">
         <v>68</v>
       </c>
@@ -4376,10 +4420,10 @@
       <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="51" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -4398,8 +4442,8 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="50"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="21" t="s">
         <v>96</v>
       </c>
@@ -4416,8 +4460,8 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="50"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="21" t="s">
         <v>2</v>
       </c>
@@ -4434,8 +4478,8 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="50"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="34" t="s">
         <v>94</v>
       </c>
@@ -4452,8 +4496,8 @@
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="50"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="33" t="s">
         <v>86</v>
       </c>
@@ -4471,8 +4515,8 @@
       <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="50"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="33" t="s">
         <v>80</v>
       </c>
@@ -4490,8 +4534,8 @@
       <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="50"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="33" t="s">
         <v>76</v>
       </c>
@@ -4509,8 +4553,8 @@
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="50"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="33" t="s">
         <v>95</v>
       </c>
@@ -4528,8 +4572,8 @@
       <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="50"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="33" t="s">
         <v>100</v>
       </c>
@@ -4549,10 +4593,10 @@
       <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="62" t="s">
         <v>132</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -4571,8 +4615,8 @@
       <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="56"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="42" t="s">
         <v>134</v>
       </c>
@@ -4589,8 +4633,8 @@
       <c r="H32" s="43"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="56"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="42" t="s">
         <v>136</v>
       </c>
@@ -4607,8 +4651,8 @@
       <c r="H33" s="43"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="56"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="42" t="s">
         <v>138</v>
       </c>
@@ -4625,8 +4669,8 @@
       <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="56"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="42" t="s">
         <v>140</v>
       </c>
@@ -4643,8 +4687,8 @@
       <c r="H35" s="43"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="57"/>
-      <c r="B36" s="54"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="42" t="s">
         <v>142</v>
       </c>
@@ -4662,18 +4706,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A31:A36"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A31:A36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4685,11 +4729,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4704,68 +4748,68 @@
     <col min="8" max="8" width="3.75" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.75" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="58" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="60">
+      <c r="H2" s="68"/>
+      <c r="I2" s="70">
         <v>44456</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="44" t="s">
@@ -4807,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>164</v>
@@ -4857,25 +4901,25 @@
       <c r="K7" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="63"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="44" t="s">
@@ -4917,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>168</v>
@@ -4944,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>170</v>
@@ -4971,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>171</v>
@@ -5021,25 +5065,25 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="63"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="44" t="s">
@@ -5081,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>174</v>
@@ -5108,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>176</v>
@@ -5156,177 +5200,173 @@
         <v>4</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="38" t="s">
+        <v>203</v>
+      </c>
       <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="K21" s="38" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="38">
+      <c r="A22" s="72">
         <v>5</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="45" t="s">
+      <c r="B22" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="72">
+        <v>10</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="72">
+        <v>6</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72">
+        <v>0</v>
+      </c>
+      <c r="K23" s="72"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="38">
+        <v>7</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="62" t="s">
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="44" t="s">
+      <c r="E26" s="67"/>
+      <c r="F26" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G26" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="44" t="s">
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+    </row>
+    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B27" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C27" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D27" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E27" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F27" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G27" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H27" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I27" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J27" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K27" s="44" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="38">
-        <v>1</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="38">
-        <v>2</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="38">
-        <v>50</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E28" s="45" t="s">
         <v>58</v>
@@ -5340,70 +5380,82 @@
         <v>203</v>
       </c>
       <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="K28" s="38" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+        <v>82</v>
+      </c>
+      <c r="F29" s="38">
+        <v>50</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38">
-        <v>0</v>
-      </c>
-      <c r="K29" s="38"/>
+      <c r="I29" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="38">
-        <v>10</v>
-      </c>
-      <c r="G30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="38" t="s">
+        <v>203</v>
+      </c>
       <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="K30" s="38" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E31" s="45" t="s">
         <v>58</v>
@@ -5419,16 +5471,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E32" s="45" t="s">
         <v>82</v>
@@ -5444,16 +5496,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E33" s="45" t="s">
         <v>58</v>
@@ -5469,149 +5521,147 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38" t="s">
-        <v>24</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F34" s="38">
+        <v>10</v>
+      </c>
+      <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="38">
+        <v>8</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38">
+        <v>0</v>
+      </c>
+      <c r="K35" s="38"/>
+    </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="47">
+        <v>9</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="44" t="s">
+      <c r="E38" s="67"/>
+      <c r="F38" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G38" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-    </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="44" t="s">
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+    </row>
+    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B39" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C39" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D39" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E39" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F39" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G39" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H39" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I39" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="J39" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="44" t="s">
+      <c r="K39" s="44" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="38">
-        <v>2</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E40" s="45" t="s">
         <v>58</v>
@@ -5620,50 +5670,52 @@
       <c r="G40" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="38" t="s">
+        <v>203</v>
+      </c>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="38">
-        <v>4</v>
+        <f>A40+1</f>
+        <v>2</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="38">
-        <v>50</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>24</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
+      <c r="J41" s="38" t="s">
+        <v>205</v>
+      </c>
       <c r="K41" s="38"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="38">
-        <v>5</v>
+      <c r="A42" s="47">
+        <f t="shared" ref="A42:A50" si="0">A41+1</f>
+        <v>3</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="E42" s="45" t="s">
         <v>58</v>
@@ -5678,22 +5730,25 @@
       <c r="K42" s="38"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="38">
-        <v>6</v>
+      <c r="A43" s="47">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="38"/>
+        <v>27</v>
+      </c>
+      <c r="F43" s="38">
+        <v>50</v>
+      </c>
       <c r="G43" s="38" t="s">
         <v>24</v>
       </c>
@@ -5703,17 +5758,18 @@
       <c r="K43" s="38"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="38">
-        <v>7</v>
+      <c r="A44" s="47">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E44" s="45" t="s">
         <v>58</v>
@@ -5728,17 +5784,18 @@
       <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="38">
-        <v>8</v>
+      <c r="A45" s="47">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E45" s="45" t="s">
         <v>58</v>
@@ -5753,272 +5810,379 @@
       <c r="K45" s="38"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="38">
-        <v>9</v>
+      <c r="A46" s="47">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="E46" s="45" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
+      <c r="G46" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
-      <c r="J46" s="38">
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" s="72">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="72">
+        <v>10</v>
+      </c>
+      <c r="G47" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" s="72">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B48" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72">
         <v>0</v>
       </c>
-      <c r="K46" s="38"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48" s="62" t="s">
+      <c r="K48" s="72"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" s="47">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38">
+        <v>0</v>
+      </c>
+      <c r="K50" s="38"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="44" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="67"/>
+      <c r="F52" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="63" t="s">
+      <c r="G52" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-    </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="44" t="s">
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+    </row>
+    <row r="53" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B53" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C53" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D53" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="44" t="s">
+      <c r="E53" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F53" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G49" s="44" t="s">
+      <c r="G53" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H53" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="I49" s="44" t="s">
+      <c r="I53" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="J49" s="44" t="s">
+      <c r="J53" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="K49" s="44" t="s">
+      <c r="K53" s="44" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50" s="32">
-        <v>1</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51" s="32">
-        <v>2</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="38">
-        <v>20</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A52" s="32">
-        <v>3</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="38">
-        <v>10</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53" s="32">
-        <v>4</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="38">
-        <v>10</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="38">
-        <v>10</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F54" s="38"/>
       <c r="G54" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="32"/>
+      <c r="H54" s="32" t="s">
+        <v>203</v>
+      </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="32"/>
+        <v>82</v>
+      </c>
+      <c r="F55" s="38">
+        <v>20</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
-      <c r="J55" s="32">
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" s="32">
+        <v>3</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="38">
+        <v>10</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" s="32">
+        <v>4</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="38">
+        <v>10</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" s="32">
+        <v>5</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="38">
+        <v>10</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="32">
+        <v>6</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="38"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32">
         <v>0</v>
       </c>
-      <c r="K55" s="32"/>
+      <c r="K59" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:K26"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
